--- a/reports/sea_raw_data/date_teu.xlsx
+++ b/reports/sea_raw_data/date_teu.xlsx
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1761.528290905956</v>
+        <v>1869.528290905956</v>
       </c>
     </row>
   </sheetData>
